--- a/app-meeting-server/MindSpore/Mindspore小程序权限矩阵_20231122.xlsx
+++ b/app-meeting-server/MindSpore/Mindspore小程序权限矩阵_20231122.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="137">
   <si>
     <t>主页URL（必选）</t>
   </si>
@@ -135,38 +135,39 @@
     <t>users_exclude/&lt;int:pk&gt;/</t>
   </si>
   <si>
-    <t>用户组列表</t>
+    <t>查看用户组列表（SIG）</t>
   </si>
   <si>
     <t>sigs/</t>
   </si>
   <si>
-    <t>用户的组信息</t>
+    <t>查看用户所在组的信息</t>
   </si>
   <si>
     <t>usergroup/&lt;int:pk&gt;/</t>
   </si>
   <si>
+    <t>查询用户的城市组关系</t>
+  </si>
+  <si>
+    <t>usercity/&lt;int:pk&gt;/</t>
+  </si>
+  <si>
     <t>用户组批量添加成员</t>
   </si>
   <si>
     <t>groupuser/action/new/</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="9.8"/>
-        <color rgb="FF808080"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>用户组批量删除成员</t>
-    </r>
+    <t>用户组批量删除成员</t>
   </si>
   <si>
     <t>groupuser/action/del/</t>
   </si>
   <si>
+    <t>查看用户组列表(MSG,PRO)</t>
+  </si>
+  <si>
     <t>groups/</t>
   </si>
   <si>
@@ -206,42 +207,36 @@
     <t>sponsor/action/del/</t>
   </si>
   <si>
+    <t>城市列表</t>
+  </si>
+  <si>
+    <t>cities/</t>
+  </si>
+  <si>
+    <t>添加城市</t>
+  </si>
+  <si>
+    <t>city/</t>
+  </si>
+  <si>
+    <t>批量新增城市组成员</t>
+  </si>
+  <si>
+    <t>cityuser/action/new/</t>
+  </si>
+  <si>
+    <t>批量移除城市组成员</t>
+  </si>
+  <si>
+    <t>cityuser/action/del/</t>
+  </si>
+  <si>
     <t>我的各类计数</t>
   </si>
   <si>
     <t>counts/</t>
   </si>
   <si>
-    <t>城市列表</t>
-  </si>
-  <si>
-    <t>cities/</t>
-  </si>
-  <si>
-    <t>添加城市</t>
-  </si>
-  <si>
-    <t>city/</t>
-  </si>
-  <si>
-    <t>批量新增城市组成员</t>
-  </si>
-  <si>
-    <t>cityuser/action/new/</t>
-  </si>
-  <si>
-    <t>批量移除城市组成员</t>
-  </si>
-  <si>
-    <t>cityuser/action/del/</t>
-  </si>
-  <si>
-    <t>查询用户的城市组关系</t>
-  </si>
-  <si>
-    <t>usercity/&lt;int:pk&gt;/</t>
-  </si>
-  <si>
     <t>会议</t>
   </si>
   <si>
@@ -251,103 +246,97 @@
     <t>meetings/</t>
   </si>
   <si>
-    <t>查询前后一周会议</t>
-  </si>
-  <si>
-    <t>meetings_weekly/</t>
-  </si>
-  <si>
-    <t>查询前后一周会议的组名</t>
-  </si>
-  <si>
-    <t>meetings_group/</t>
-  </si>
-  <si>
-    <t>查询当日会议</t>
-  </si>
-  <si>
-    <t>meetings_daily/</t>
-  </si>
-  <si>
-    <t>查询近期会议</t>
-  </si>
-  <si>
-    <t>meetings_recently/</t>
-  </si>
-  <si>
     <t>取消会议</t>
   </si>
   <si>
-    <t>meeting/&lt;int:pk&gt;/</t>
-  </si>
-  <si>
-    <t>查询会议详情</t>
+    <t>meeting/&lt;int:mid&gt;/</t>
+  </si>
+  <si>
+    <t>会议详情</t>
   </si>
   <si>
     <t>meetings/&lt;int:pk&gt;/</t>
   </si>
   <si>
-    <t>查询已预定的会议</t>
+    <t>会议列表</t>
+  </si>
+  <si>
+    <t>meetingslist/</t>
+  </si>
+  <si>
+    <t>收藏会议</t>
+  </si>
+  <si>
+    <t>collect/</t>
+  </si>
+  <si>
+    <t>取消收藏会议</t>
+  </si>
+  <si>
+    <t>collect/&lt;int:pk&gt;/</t>
+  </si>
+  <si>
+    <t>我收藏的会议</t>
+  </si>
+  <si>
+    <t>collections/</t>
+  </si>
+  <si>
+    <t>我预定的会议</t>
   </si>
   <si>
     <t>mymeetings/</t>
   </si>
   <si>
-    <t>查询所有会议</t>
-  </si>
-  <si>
-    <t>allmeetings/</t>
-  </si>
-  <si>
-    <t>收藏会议</t>
-  </si>
-  <si>
-    <t>collect/</t>
-  </si>
-  <si>
-    <t>取消收藏会议</t>
-  </si>
-  <si>
-    <t>collect/&lt;int:pk&gt;/</t>
-  </si>
-  <si>
-    <t>查询已收藏的会议</t>
-  </si>
-  <si>
-    <t>collections/</t>
-  </si>
-  <si>
-    <t>查询参会者</t>
+    <t>会议参会者名单</t>
   </si>
   <si>
     <t>participants/&lt;int:mid&gt;/</t>
   </si>
   <si>
-    <t>查询会议日历</t>
-  </si>
-  <si>
-    <t>meetingsdata/</t>
-  </si>
-  <si>
-    <t>查询某个SIG的会议日历</t>
-  </si>
-  <si>
-    <t>sigmeetingsdata/&lt;str:gn&gt;/</t>
-  </si>
-  <si>
     <t>活动</t>
   </si>
   <si>
-    <t>创建活动并申请发布</t>
+    <t>创建活动</t>
   </si>
   <si>
     <t>activity/</t>
   </si>
   <si>
-    <t>创建活动草案</t>
-  </si>
-  <si>
-    <t>activitydraft/</t>
+    <t>修改活动</t>
+  </si>
+  <si>
+    <t>activityupdate/&lt;int:pk&gt;/</t>
+  </si>
+  <si>
+    <t>待审核列表</t>
+  </si>
+  <si>
+    <t>waitingactivities/</t>
+  </si>
+  <si>
+    <t>待审核活动详情</t>
+  </si>
+  <si>
+    <t>waitingactivity/&lt;int:pk&gt;/</t>
+  </si>
+  <si>
+    <t>通过审核</t>
+  </si>
+  <si>
+    <t>activity/action/approve/&lt;int:pk&gt;/</t>
+  </si>
+  <si>
+    <t>驳回申请</t>
+  </si>
+  <si>
+    <t>activity/action/deny/&lt;int:pk&gt;/</t>
+  </si>
+  <si>
+    <t>删除活动</t>
+  </si>
+  <si>
+    <t>activity/action/del/&lt;int:pk&gt;/</t>
   </si>
   <si>
     <t>修改活动草案</t>
@@ -356,115 +345,88 @@
     <t>draftupdate/&lt;int:pk&gt;/</t>
   </si>
   <si>
-    <t>申请发布活动</t>
-  </si>
-  <si>
-    <t>draftpublish/&lt;int:pk&gt;/</t>
-  </si>
-  <si>
-    <t>查询活动草案详情</t>
-  </si>
-  <si>
-    <t>sponsoractivitydraft/&lt;int:pk&gt;/</t>
+    <t>查询活动草案</t>
+  </si>
+  <si>
+    <t>draft/&lt;int:pk&gt;/</t>
   </si>
   <si>
     <t>删除活动草案</t>
   </si>
   <si>
-    <t>通过审核</t>
-  </si>
-  <si>
-    <t>activitypublish/&lt;int:pk&gt;/</t>
-  </si>
-  <si>
-    <t>驳回申请</t>
-  </si>
-  <si>
-    <t>activityreject/&lt;int:pk&gt;/</t>
-  </si>
-  <si>
-    <t>activitydel/&lt;int:pk&gt;/</t>
-  </si>
-  <si>
-    <t>activityupdate/&lt;int:pk&gt;/</t>
+    <t>活动列表</t>
+  </si>
+  <si>
+    <t>activities/</t>
+  </si>
+  <si>
+    <t>活动详情</t>
+  </si>
+  <si>
+    <t>activity/&lt;int:pk&gt;/</t>
+  </si>
+  <si>
+    <t>我的已发布活动列表</t>
+  </si>
+  <si>
+    <t>mypublishedactivities/</t>
+  </si>
+  <si>
+    <t>我的待发布活动列表</t>
+  </si>
+  <si>
+    <t>mywaitingactivities/</t>
+  </si>
+  <si>
+    <t>活动草案列表</t>
+  </si>
+  <si>
+    <t>drafts/</t>
   </si>
   <si>
     <t>收藏活动</t>
   </si>
   <si>
-    <t>collectactivity/</t>
+    <t>activity/action/collect/</t>
   </si>
   <si>
     <t>取消收藏活动</t>
   </si>
   <si>
-    <t>collectactivitydel/&lt;int:pk&gt;/</t>
-  </si>
-  <si>
-    <t>查询审核列表</t>
-  </si>
-  <si>
-    <t>drafts/</t>
-  </si>
-  <si>
-    <t>查询待发布活动详情</t>
-  </si>
-  <si>
-    <t>draft/&lt;int:pk&gt;/</t>
-  </si>
-  <si>
-    <t>查询最近的活动</t>
+    <t>activity/action/collectdel/&lt;int:pk&gt;/</t>
+  </si>
+  <si>
+    <t>活动收藏列表</t>
+  </si>
+  <si>
+    <t>activitycollections/</t>
+  </si>
+  <si>
+    <t>最近的活动</t>
   </si>
   <si>
     <t>recentactivities/</t>
   </si>
   <si>
-    <t>查询活动发布者已发布的活动</t>
-  </si>
-  <si>
-    <t>sponsoractivities/</t>
-  </si>
-  <si>
-    <t>查询活动发布者本人的草案列表</t>
-  </si>
-  <si>
-    <t>activitiesdraft/</t>
-  </si>
-  <si>
-    <t>查询活动发布者发布中的活动</t>
-  </si>
-  <si>
-    <t>sponsoractivitiespublishing/</t>
-  </si>
-  <si>
-    <t>查询已收藏的活动</t>
-  </si>
-  <si>
-    <t>collectactivities/</t>
-  </si>
-  <si>
-    <t>查询各类活动计数</t>
+    <t>各类活动计数</t>
   </si>
   <si>
     <t>countactivities/</t>
   </si>
   <si>
-    <t>查询活动日历</t>
-  </si>
-  <si>
-    <t>activitiesdata/</t>
-  </si>
-  <si>
-    <t>查询活动列表</t>
-  </si>
-  <si>
-    <t>activities/</t>
-  </si>
-  <si>
-    <t>查询活动详情</t>
-  </si>
-  <si>
-    <t>activity/&lt;int:pk&gt;/</t>
+    <t>官网</t>
+  </si>
+  <si>
+    <t>官网查看具有会议的日期</t>
+  </si>
+  <si>
+    <t>meeting_activity_date</t>
+  </si>
+  <si>
+    <t>官网查看具有会议的数据</t>
+  </si>
+  <si>
+    <t>meeting_activity_data</t>
   </si>
 </sst>
 </file>
@@ -477,7 +439,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -644,12 +606,6 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.8"/>
-      <color rgb="FF808080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="34">
@@ -1160,7 +1116,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1196,6 +1152,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1548,17 +1507,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K70"/>
+  <dimension ref="A1:K139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="12.875" customWidth="1"/>
     <col min="3" max="3" width="28.75" customWidth="1"/>
-    <col min="4" max="4" width="33.75" customWidth="1"/>
+    <col min="4" max="4" width="40.25" customWidth="1"/>
     <col min="5" max="9" width="11.5" customWidth="1"/>
     <col min="10" max="10" width="9.375" customWidth="1"/>
   </cols>
@@ -1747,7 +1706,9 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="6"/>
+      <c r="A8" s="6">
+        <v>4</v>
+      </c>
       <c r="B8" s="11"/>
       <c r="C8" s="8" t="s">
         <v>23</v>
@@ -1775,7 +1736,7 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B9" s="11"/>
       <c r="C9" s="8" t="s">
@@ -1804,7 +1765,7 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B10" s="11"/>
       <c r="C10" s="8" t="s">
@@ -1833,7 +1794,7 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B11" s="11"/>
       <c r="C11" s="8" t="s">
@@ -1862,7 +1823,7 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B12" s="11"/>
       <c r="C12" s="8" t="s">
@@ -1891,7 +1852,7 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B13" s="11"/>
       <c r="C13" s="8" t="s">
@@ -1914,7 +1875,7 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B14" s="11"/>
       <c r="C14" s="8" t="s">
@@ -1935,7 +1896,7 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B15" s="11"/>
       <c r="C15" s="8" t="s">
@@ -1956,7 +1917,7 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B16" s="11"/>
       <c r="C16" s="8" t="s">
@@ -1977,7 +1938,7 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B17" s="11"/>
       <c r="C17" s="8" t="s">
@@ -1986,10 +1947,10 @@
       <c r="D17" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
@@ -1997,9 +1958,7 @@
       <c r="K17" s="6"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="6">
-        <v>13</v>
-      </c>
+      <c r="A18" s="6"/>
       <c r="B18" s="11"/>
       <c r="C18" s="8" t="s">
         <v>43</v>
@@ -2007,10 +1966,10 @@
       <c r="D18" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
@@ -2044,12 +2003,14 @@
       </c>
       <c r="B20" s="11"/>
       <c r="C20" s="8" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E20" s="6"/>
+        <v>48</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
@@ -2058,15 +2019,19 @@
       <c r="K20" s="6"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="6"/>
+      <c r="A21" s="6">
+        <v>16</v>
+      </c>
       <c r="B21" s="11"/>
       <c r="C21" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E21" s="6"/>
+        <v>50</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
@@ -2075,15 +2040,19 @@
       <c r="K21" s="6"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="6"/>
+      <c r="A22" s="6">
+        <v>17</v>
+      </c>
       <c r="B22" s="11"/>
       <c r="C22" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E22" s="6"/>
+        <v>52</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
@@ -2092,15 +2061,19 @@
       <c r="K22" s="6"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="6"/>
+      <c r="A23" s="6">
+        <v>18</v>
+      </c>
       <c r="B23" s="11"/>
       <c r="C23" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E23" s="6"/>
+        <v>54</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
@@ -2109,84 +2082,106 @@
       <c r="K23" s="6"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="6"/>
+      <c r="A24" s="6">
+        <v>19</v>
+      </c>
       <c r="B24" s="11"/>
       <c r="C24" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
+      <c r="G24" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="6"/>
+      <c r="A25" s="6">
+        <v>20</v>
+      </c>
       <c r="B25" s="11"/>
       <c r="C25" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
+      <c r="G25" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="6"/>
+      <c r="A26" s="6">
+        <v>21</v>
+      </c>
       <c r="B26" s="11"/>
       <c r="C26" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
+      <c r="G26" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="6"/>
+      <c r="A27" s="6">
+        <v>22</v>
+      </c>
       <c r="B27" s="11"/>
       <c r="C27" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
+      <c r="G27" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="6"/>
+      <c r="A28" s="6">
+        <v>23</v>
+      </c>
       <c r="B28" s="11"/>
       <c r="C28" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
+        <v>64</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
@@ -2194,15 +2189,19 @@
       <c r="K28" s="6"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="6"/>
+      <c r="A29" s="6">
+        <v>24</v>
+      </c>
       <c r="B29" s="11"/>
       <c r="C29" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E29" s="6"/>
+        <v>66</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
@@ -2211,15 +2210,19 @@
       <c r="K29" s="6"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="6"/>
+      <c r="A30" s="6">
+        <v>25</v>
+      </c>
       <c r="B30" s="11"/>
       <c r="C30" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E30" s="6"/>
+        <v>68</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
@@ -2229,43 +2232,35 @@
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="6">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B31" s="11"/>
       <c r="C31" s="8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F31" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I31" s="6" t="s">
-        <v>17</v>
-      </c>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="6">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B32" s="11"/>
       <c r="C32" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>17</v>
@@ -2276,26 +2271,30 @@
       <c r="G32" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
+      <c r="H32" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="J32" s="6"/>
       <c r="K32" s="6"/>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="6">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E33" s="9"/>
-      <c r="F33" s="9" t="s">
+      <c r="F33" s="6" t="s">
         <v>17</v>
       </c>
       <c r="G33" s="9"/>
@@ -2306,231 +2305,209 @@
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="6">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B34" s="11"/>
       <c r="C34" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G34" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H34" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I34" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J34" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K34" s="9" t="s">
-        <v>17</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="6">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B35" s="11"/>
       <c r="C35" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G35" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H35" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I35" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J35" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K35" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K35" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="6">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B36" s="11"/>
       <c r="C36" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F36" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G36" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H36" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I36" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J36" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K36" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J36" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K36" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="6">
-        <v>24</v>
-      </c>
+      <c r="A37" s="6"/>
       <c r="B37" s="11"/>
       <c r="C37" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G37" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H37" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I37" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J37" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K37" s="9" t="s">
-        <v>17</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="6">
-        <v>25</v>
-      </c>
+      <c r="A38" s="6"/>
       <c r="B38" s="11"/>
       <c r="C38" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
+        <v>85</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="6">
-        <v>26</v>
-      </c>
+      <c r="A39" s="6"/>
       <c r="B39" s="11"/>
       <c r="C39" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F39" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G39" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H39" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I39" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J39" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K39" s="9" t="s">
-        <v>17</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="6">
-        <v>27</v>
-      </c>
+      <c r="A40" s="6"/>
       <c r="B40" s="11"/>
       <c r="C40" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F40" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G40" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H40" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I40" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I40" s="6" t="s">
         <v>17</v>
       </c>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="6">
-        <v>28</v>
-      </c>
+      <c r="A41" s="6"/>
       <c r="B41" s="11"/>
       <c r="C41" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
@@ -2538,217 +2515,153 @@
       <c r="H41" s="9"/>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
-      <c r="K41" s="9" t="s">
+      <c r="K41" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="6">
-        <v>29</v>
-      </c>
-      <c r="B42" s="11"/>
-      <c r="C42" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="D42" s="8" t="s">
+      <c r="A42" s="6"/>
+      <c r="B42" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="E42" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F42" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G42" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H42" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I42" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J42" s="9"/>
-      <c r="K42" s="9"/>
+      <c r="C42" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="6">
-        <v>30</v>
-      </c>
-      <c r="B43" s="11"/>
-      <c r="C43" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F43" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G43" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H43" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I43" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J43" s="9"/>
-      <c r="K43" s="9"/>
+      <c r="A43" s="6"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="6">
-        <v>31</v>
-      </c>
-      <c r="B44" s="11"/>
-      <c r="C44" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F44" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G44" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H44" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I44" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J44" s="9"/>
-      <c r="K44" s="9"/>
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="6">
-        <v>32</v>
-      </c>
-      <c r="B45" s="11"/>
-      <c r="C45" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
-      <c r="J45" s="9"/>
-      <c r="K45" s="9" t="s">
-        <v>17</v>
-      </c>
+      <c r="A45" s="6"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="6">
-        <v>33</v>
-      </c>
-      <c r="B46" s="11"/>
-      <c r="C46" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="E46" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F46" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G46" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H46" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I46" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J46" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K46" s="9" t="s">
-        <v>17</v>
-      </c>
+      <c r="A46" s="6"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="6">
-        <v>34</v>
-      </c>
-      <c r="B47" s="12"/>
-      <c r="C47" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F47" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G47" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H47" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I47" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J47" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K47" s="9" t="s">
-        <v>17</v>
-      </c>
+      <c r="A47" s="6"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="6">
-        <v>35</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>103</v>
-      </c>
+      <c r="A48" s="6"/>
+      <c r="B48" s="6"/>
       <c r="C48" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6" t="s">
-        <v>17</v>
-      </c>
+      <c r="G48" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H48" s="6"/>
       <c r="I48" s="6"/>
       <c r="J48" s="6"/>
       <c r="K48" s="6"/>
     </row>
     <row r="49" spans="1:11">
-      <c r="A49" s="6">
-        <v>36</v>
-      </c>
+      <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="C49" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
@@ -2761,15 +2674,13 @@
       <c r="K49" s="6"/>
     </row>
     <row r="50" spans="1:11">
-      <c r="A50" s="6">
-        <v>37</v>
-      </c>
+      <c r="A50" s="6"/>
       <c r="B50" s="6"/>
       <c r="C50" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
@@ -2782,15 +2693,13 @@
       <c r="K50" s="6"/>
     </row>
     <row r="51" spans="1:11">
-      <c r="A51" s="6">
-        <v>38</v>
-      </c>
+      <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="C51" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D51" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
@@ -2803,9 +2712,7 @@
       <c r="K51" s="6"/>
     </row>
     <row r="52" spans="1:11">
-      <c r="A52" s="6">
-        <v>39</v>
-      </c>
+      <c r="A52" s="6"/>
       <c r="B52" s="6"/>
       <c r="C52" s="8" t="s">
         <v>112</v>
@@ -2813,131 +2720,151 @@
       <c r="D52" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
+      <c r="E52" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="H52" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I52" s="6"/>
-      <c r="J52" s="6"/>
-      <c r="K52" s="6"/>
+      <c r="I52" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J52" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K52" s="6" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="53" spans="1:11">
-      <c r="A53" s="6">
-        <v>40</v>
-      </c>
+      <c r="A53" s="6"/>
       <c r="B53" s="6"/>
       <c r="C53" s="8" t="s">
         <v>114</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
+        <v>115</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="H53" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I53" s="6"/>
-      <c r="J53" s="6"/>
-      <c r="K53" s="6"/>
+      <c r="I53" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J53" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K53" s="6" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="54" spans="1:11">
-      <c r="A54" s="6">
-        <v>41</v>
-      </c>
+      <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="C54" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
-      <c r="G54" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="I54" s="6"/>
       <c r="J54" s="6"/>
       <c r="K54" s="6"/>
     </row>
     <row r="55" spans="1:11">
-      <c r="A55" s="6">
-        <v>42</v>
-      </c>
+      <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
-      <c r="G55" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="I55" s="6"/>
       <c r="J55" s="6"/>
       <c r="K55" s="6"/>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56" s="6">
-        <v>43</v>
-      </c>
+      <c r="A56" s="6"/>
       <c r="B56" s="6"/>
       <c r="C56" s="8" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
-      <c r="G56" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="I56" s="6"/>
       <c r="J56" s="6"/>
       <c r="K56" s="6"/>
     </row>
     <row r="57" spans="1:11">
-      <c r="A57" s="6">
-        <v>44</v>
-      </c>
+      <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="C57" s="8" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
+        <v>123</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="H57" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I57" s="6"/>
+      <c r="I57" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="J57" s="6"/>
       <c r="K57" s="6"/>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" s="6">
-        <v>45</v>
-      </c>
+      <c r="A58" s="6"/>
       <c r="B58" s="6"/>
       <c r="C58" s="8" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E58" s="6" t="s">
         <v>17</v>
@@ -2958,15 +2885,13 @@
       <c r="K58" s="6"/>
     </row>
     <row r="59" spans="1:11">
-      <c r="A59" s="6">
-        <v>46</v>
-      </c>
+      <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="C59" s="8" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E59" s="6" t="s">
         <v>17</v>
@@ -2987,314 +2912,452 @@
       <c r="K59" s="6"/>
     </row>
     <row r="60" spans="1:11">
-      <c r="A60" s="6">
-        <v>47</v>
-      </c>
+      <c r="A60" s="6"/>
       <c r="B60" s="6"/>
       <c r="C60" s="8" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
+        <v>129</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="G60" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H60" s="6"/>
-      <c r="I60" s="6"/>
-      <c r="J60" s="6"/>
-      <c r="K60" s="6"/>
+      <c r="H60" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I60" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J60" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K60" s="6" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="61" spans="1:11">
-      <c r="A61" s="6">
-        <v>48</v>
-      </c>
+      <c r="A61" s="6"/>
       <c r="B61" s="6"/>
       <c r="C61" s="8" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
+        <v>131</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="G61" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H61" s="6"/>
-      <c r="I61" s="6"/>
-      <c r="J61" s="6"/>
-      <c r="K61" s="6"/>
+      <c r="H61" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I61" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J61" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K61" s="6" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="62" spans="1:11">
-      <c r="A62" s="6">
+      <c r="A62" s="6"/>
+      <c r="B62" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H62" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I62" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J62" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K62" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" s="6"/>
+      <c r="B63" s="12"/>
+      <c r="C63" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H63" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I63" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J63" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K63" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="13"/>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="6"/>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="6"/>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="6"/>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="6"/>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="6"/>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="6"/>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="6"/>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="6"/>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="6"/>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="6"/>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="6"/>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="6"/>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="6"/>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="6"/>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="6"/>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="6"/>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="6"/>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="6"/>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="6"/>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="6"/>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="6"/>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="6"/>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="6"/>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="6"/>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="6"/>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="6"/>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="6"/>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="6"/>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="6"/>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="6"/>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="6"/>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="6"/>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="6"/>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="6"/>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" s="6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" s="6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" s="6">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" s="6">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" s="6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" s="6">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" s="6">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" s="6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" s="6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" s="6">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" s="6">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" s="6">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" s="6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" s="6">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" s="6">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" s="6">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" s="6">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" s="6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" s="6">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" s="6">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" s="6">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" s="6">
         <v>49</v>
       </c>
-      <c r="B62" s="6"/>
-      <c r="C62" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="E62" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F62" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G62" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H62" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I62" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J62" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K62" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11">
-      <c r="A63" s="6">
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" s="6">
         <v>50</v>
       </c>
-      <c r="B63" s="6"/>
-      <c r="C63" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="D63" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="E63" s="6"/>
-      <c r="F63" s="6"/>
-      <c r="G63" s="6"/>
-      <c r="H63" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I63" s="6"/>
-      <c r="J63" s="6"/>
-      <c r="K63" s="6"/>
-    </row>
-    <row r="64" spans="1:11">
-      <c r="A64" s="6">
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" s="6">
         <v>51</v>
       </c>
-      <c r="B64" s="6"/>
-      <c r="C64" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="D64" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="E64" s="6"/>
-      <c r="F64" s="6"/>
-      <c r="G64" s="6"/>
-      <c r="H64" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I64" s="6"/>
-      <c r="J64" s="6"/>
-      <c r="K64" s="6"/>
-    </row>
-    <row r="65" spans="1:11">
-      <c r="A65" s="6">
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" s="6">
         <v>52</v>
       </c>
-      <c r="B65" s="6"/>
-      <c r="C65" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="D65" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="E65" s="6"/>
-      <c r="F65" s="6"/>
-      <c r="G65" s="6"/>
-      <c r="H65" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I65" s="6"/>
-      <c r="J65" s="6"/>
-      <c r="K65" s="6"/>
-    </row>
-    <row r="66" spans="1:11">
-      <c r="A66" s="6">
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" s="6">
         <v>53</v>
       </c>
-      <c r="B66" s="6"/>
-      <c r="C66" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="D66" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="E66" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F66" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G66" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H66" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I66" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J66" s="6"/>
-      <c r="K66" s="6"/>
-    </row>
-    <row r="67" spans="1:11">
-      <c r="A67" s="6">
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" s="6">
         <v>54</v>
       </c>
-      <c r="B67" s="6"/>
-      <c r="C67" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="D67" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="E67" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F67" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G67" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H67" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I67" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J67" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K67" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11">
-      <c r="A68" s="6">
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" s="6">
         <v>55</v>
       </c>
-      <c r="B68" s="6"/>
-      <c r="C68" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="D68" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="E68" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F68" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G68" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H68" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I68" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J68" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K68" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11">
-      <c r="A69" s="6">
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" s="6">
         <v>56</v>
       </c>
-      <c r="B69" s="6"/>
-      <c r="C69" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="D69" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="E69" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F69" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G69" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H69" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I69" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J69" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K69" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11">
-      <c r="A70" s="6">
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" s="6">
         <v>57</v>
       </c>
-      <c r="B70" s="6"/>
-      <c r="C70" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="D70" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="E70" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F70" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G70" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H70" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I70" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J70" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K70" s="6" t="s">
-        <v>17</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="18">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="E1:K1"/>
     <mergeCell ref="E2:K2"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="B6:B32"/>
-    <mergeCell ref="B33:B47"/>
-    <mergeCell ref="B48:B70"/>
+    <mergeCell ref="B33:B41"/>
+    <mergeCell ref="B42:B61"/>
+    <mergeCell ref="B62:B63"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="D2:D4"/>
     <mergeCell ref="E3:E4"/>
